--- a/documents/Teileliste.xlsx
+++ b/documents/Teileliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Documents/OTH/DT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Documents/OTH/DT/dt_g1_himmel_wacht_sose2025/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B33976D-B78D-9741-ABE7-08602F5B60CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106EE2EE-8047-A343-880B-9FFCAB4BE8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{3BEF5D8B-3864-804B-BE35-C4BBC8A91830}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="19720" xr2:uid="{3BEF5D8B-3864-804B-BE35-C4BBC8A91830}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Teileliste</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>ULN2003 Driver Board</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/ICQUANZX-stücke-ULN2003-Schrittmotor-Treiberplatine/dp/B07VQ856M9/ref=sr_1_6?__mk_de_DE=ÅMÅŽÕÑ&amp;sr=8-6</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,13 +255,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -597,21 +599,21 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -629,7 +631,7 @@
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -658,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -674,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -690,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -836,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="10" t="s">
+      <c r="F17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -901,7 +903,7 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B23">
@@ -912,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -923,11 +925,14 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E24" s="8"/>
+      <c r="F24" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -937,6 +942,7 @@
     <hyperlink ref="F4" r:id="rId1" xr:uid="{1C60E925-6953-6B49-8105-9C14947815C3}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{BF915C06-F381-9D4B-92AF-D5C79DC03D36}"/>
     <hyperlink ref="F23" r:id="rId3" xr:uid="{0E1F4C2D-7D37-0043-8EA4-BCBB79DB0476}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{57851578-0133-864E-9A1B-13B4D3888996}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Teileliste.xlsx
+++ b/documents/Teileliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Documents/OTH/DT/dt_g1_himmel_wacht_sose2025/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106EE2EE-8047-A343-880B-9FFCAB4BE8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6206C15-7A52-4A4D-969E-ADA462D8877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="19720" xr2:uid="{3BEF5D8B-3864-804B-BE35-C4BBC8A91830}"/>
   </bookViews>
@@ -140,13 +140,13 @@
     <t>Nervdarts</t>
   </si>
   <si>
-    <t>https://www.amazon.de/-/en/Topro-Bullet-Safety-Bullets-Blaster/dp/B00NM8E4LS/ref=sr_1_5?crid=2NX4LA0YQ86JQ&amp;dib=eyJ2IjoiMSJ9.vhP4ZonK4FH3QaOZdUR1o58_W_krIa-GG3BXz-vM7POdfe-5BwaB2i-eot91otQ_hbvMNVTtFoB6G78P55byBZ9txu74bDo5KjzSDxz6XvEZq6kQpONQRQTyEfE-k1-RXVV</t>
-  </si>
-  <si>
     <t>ULN2003 Driver Board</t>
   </si>
   <si>
     <t>https://www.amazon.de/ICQUANZX-stücke-ULN2003-Schrittmotor-Treiberplatine/dp/B07VQ856M9/ref=sr_1_6?__mk_de_DE=ÅMÅŽÕÑ&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Nerf-Elite-20er-Dart-Nachfüllpackung/dp/B087YHTB2Z/ref=sr_1_8?__mk_de_DE=ÅMÅŽÕÑ&amp;s=toys&amp;sr=1-8</t>
   </si>
 </sst>
 </file>
@@ -257,10 +257,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,10 +610,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -915,12 +915,12 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -930,8 +930,8 @@
         <v>6</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="12" t="s">
-        <v>36</v>
+      <c r="F24" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -941,8 +941,7 @@
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{1C60E925-6953-6B49-8105-9C14947815C3}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{BF915C06-F381-9D4B-92AF-D5C79DC03D36}"/>
-    <hyperlink ref="F23" r:id="rId3" xr:uid="{0E1F4C2D-7D37-0043-8EA4-BCBB79DB0476}"/>
-    <hyperlink ref="F24" r:id="rId4" xr:uid="{57851578-0133-864E-9A1B-13B4D3888996}"/>
+    <hyperlink ref="F24" r:id="rId3" xr:uid="{57851578-0133-864E-9A1B-13B4D3888996}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
